--- a/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H2">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I2">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J2">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N2">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O2">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P2">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q2">
-        <v>22.38063341018915</v>
+        <v>25.415525168515</v>
       </c>
       <c r="R2">
-        <v>22.38063341018915</v>
+        <v>228.739726516635</v>
       </c>
       <c r="S2">
-        <v>0.001524279305367801</v>
+        <v>0.0014907377743094</v>
       </c>
       <c r="T2">
-        <v>0.001524279305367801</v>
+        <v>0.001615683521700523</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H3">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I3">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J3">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N3">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O3">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P3">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q3">
-        <v>270.6379906803796</v>
+        <v>298.671025337051</v>
       </c>
       <c r="R3">
-        <v>270.6379906803796</v>
+        <v>2688.039228033459</v>
       </c>
       <c r="S3">
-        <v>0.01843235983895863</v>
+        <v>0.01751843318639072</v>
       </c>
       <c r="T3">
-        <v>0.01843235983895863</v>
+        <v>0.01898673550308022</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H4">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I4">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J4">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N4">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O4">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P4">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q4">
-        <v>491.8460016197538</v>
+        <v>647.2184675250165</v>
       </c>
       <c r="R4">
-        <v>491.8460016197538</v>
+        <v>5824.96620772515</v>
       </c>
       <c r="S4">
-        <v>0.0334981887221999</v>
+        <v>0.0379623482644155</v>
       </c>
       <c r="T4">
-        <v>0.0334981887221999</v>
+        <v>0.04114415130071199</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H5">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I5">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J5">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N5">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O5">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P5">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q5">
-        <v>730.5684676028424</v>
+        <v>791.0007039050549</v>
       </c>
       <c r="R5">
-        <v>730.5684676028424</v>
+        <v>7119.006335145495</v>
       </c>
       <c r="S5">
-        <v>0.04975687577342198</v>
+        <v>0.04639583959010075</v>
       </c>
       <c r="T5">
-        <v>0.04975687577342198</v>
+        <v>0.05028449321740239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.2921922481688</v>
+        <v>14.052091</v>
       </c>
       <c r="H6">
-        <v>13.2921922481688</v>
+        <v>42.156273</v>
       </c>
       <c r="I6">
-        <v>0.1193951956228531</v>
+        <v>0.118199646824064</v>
       </c>
       <c r="J6">
-        <v>0.1193951956228531</v>
+        <v>0.1227480314487644</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N6">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O6">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P6">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q6">
-        <v>237.6183945361185</v>
+        <v>252.875049986686</v>
       </c>
       <c r="R6">
-        <v>237.6183945361185</v>
+        <v>1517.250299920116</v>
       </c>
       <c r="S6">
-        <v>0.01618349198290476</v>
+        <v>0.01483228800884765</v>
       </c>
       <c r="T6">
-        <v>0.01618349198290476</v>
+        <v>0.01071696790586934</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H7">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I7">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J7">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N7">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O7">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P7">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q7">
-        <v>37.13394483419691</v>
+        <v>42.93917332442667</v>
       </c>
       <c r="R7">
-        <v>37.13394483419691</v>
+        <v>386.45255991984</v>
       </c>
       <c r="S7">
-        <v>0.002529084079080026</v>
+        <v>0.002518580562389436</v>
       </c>
       <c r="T7">
-        <v>0.002529084079080026</v>
+        <v>0.002729674650267021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H8">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I8">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J8">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N8">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O8">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P8">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q8">
-        <v>449.0425285009024</v>
+        <v>504.6005085041173</v>
       </c>
       <c r="R8">
-        <v>449.0425285009024</v>
+        <v>4541.404576537056</v>
       </c>
       <c r="S8">
-        <v>0.03058296969880852</v>
+        <v>0.02959714717580125</v>
       </c>
       <c r="T8">
-        <v>0.03058296969880852</v>
+        <v>0.03207782334719479</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H9">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I9">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J9">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N9">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O9">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P9">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q9">
-        <v>816.0708392977472</v>
+        <v>1093.466523770844</v>
       </c>
       <c r="R9">
-        <v>816.0708392977472</v>
+        <v>9841.198713937598</v>
       </c>
       <c r="S9">
-        <v>0.05558019155478293</v>
+        <v>0.06413685497820576</v>
       </c>
       <c r="T9">
-        <v>0.05558019155478293</v>
+        <v>0.06951246658386216</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H10">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I10">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J10">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N10">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O10">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P10">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q10">
-        <v>1212.159132244079</v>
+        <v>1336.38459561712</v>
       </c>
       <c r="R10">
-        <v>1212.159132244079</v>
+        <v>12027.46136055408</v>
       </c>
       <c r="S10">
-        <v>0.0825566035700785</v>
+        <v>0.07838512029488134</v>
       </c>
       <c r="T10">
-        <v>0.0825566035700785</v>
+        <v>0.08495494606059939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.0544041190686</v>
+        <v>23.74081066666666</v>
       </c>
       <c r="H11">
-        <v>22.0544041190686</v>
+        <v>71.222432</v>
       </c>
       <c r="I11">
-        <v>0.1981004972678163</v>
+        <v>0.1996966455822818</v>
       </c>
       <c r="J11">
-        <v>0.1981004972678163</v>
+        <v>0.2073810776155066</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N11">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O11">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P11">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q11">
-        <v>394.2564177061012</v>
+        <v>427.2288504292907</v>
       </c>
       <c r="R11">
-        <v>394.2564177061012</v>
+        <v>2563.373102575744</v>
       </c>
       <c r="S11">
-        <v>0.02685164836506628</v>
+        <v>0.02505894257100401</v>
       </c>
       <c r="T11">
-        <v>0.02685164836506628</v>
+        <v>0.01810616697358331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H12">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I12">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J12">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N12">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O12">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P12">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q12">
-        <v>49.30779122269796</v>
+        <v>59.61299551166667</v>
       </c>
       <c r="R12">
-        <v>49.30779122269796</v>
+        <v>536.516959605</v>
       </c>
       <c r="S12">
-        <v>0.003358209054080537</v>
+        <v>0.00349657713778301</v>
       </c>
       <c r="T12">
-        <v>0.003358209054080537</v>
+        <v>0.003789641720515143</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H13">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I13">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J13">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N13">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O13">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P13">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q13">
-        <v>596.2548644992014</v>
+        <v>700.5432457063332</v>
       </c>
       <c r="R13">
-        <v>596.2548644992014</v>
+        <v>6304.889211356999</v>
       </c>
       <c r="S13">
-        <v>0.04060917017063698</v>
+        <v>0.04109009245283918</v>
       </c>
       <c r="T13">
-        <v>0.04060917017063698</v>
+        <v>0.04453404644687328</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H14">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I14">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J14">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N14">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O14">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P14">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q14">
-        <v>1083.608292808394</v>
+        <v>1518.073356494444</v>
       </c>
       <c r="R14">
-        <v>1083.608292808394</v>
+        <v>13662.66020845</v>
       </c>
       <c r="S14">
-        <v>0.07380138290012803</v>
+        <v>0.08904200411732652</v>
       </c>
       <c r="T14">
-        <v>0.07380138290012803</v>
+        <v>0.09650503346116722</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H15">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I15">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J15">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N15">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O15">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P15">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q15">
-        <v>1609.548613492208</v>
+        <v>1855.319577265</v>
       </c>
       <c r="R15">
-        <v>1609.548613492208</v>
+        <v>16697.876195385</v>
       </c>
       <c r="S15">
-        <v>0.1096216357045845</v>
+        <v>0.1088230504349749</v>
       </c>
       <c r="T15">
-        <v>0.1096216357045845</v>
+        <v>0.1179440223485489</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.2846332028425</v>
+        <v>32.95966666666666</v>
       </c>
       <c r="H16">
-        <v>29.2846332028425</v>
+        <v>98.87899999999999</v>
       </c>
       <c r="I16">
-        <v>0.2630449849593897</v>
+        <v>0.2772413699455032</v>
       </c>
       <c r="J16">
-        <v>0.2630449849593897</v>
+        <v>0.2879097637882357</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N16">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O16">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P16">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q16">
-        <v>523.5078906714723</v>
+        <v>593.1271976446667</v>
       </c>
       <c r="R16">
-        <v>523.5078906714723</v>
+        <v>3558.763185868</v>
       </c>
       <c r="S16">
-        <v>0.03565458712995961</v>
+        <v>0.03478964580257952</v>
       </c>
       <c r="T16">
-        <v>0.03565458712995961</v>
+        <v>0.02513701981113119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H17">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I17">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J17">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N17">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O17">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P17">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q17">
-        <v>57.58306487419217</v>
+        <v>63.15162024841501</v>
       </c>
       <c r="R17">
-        <v>57.58306487419217</v>
+        <v>568.364582235735</v>
       </c>
       <c r="S17">
-        <v>0.003921813673397763</v>
+        <v>0.003704133799673724</v>
       </c>
       <c r="T17">
-        <v>0.003921813673397763</v>
+        <v>0.004014594682877249</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H18">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I18">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J18">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N18">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O18">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P18">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q18">
-        <v>696.323678116919</v>
+        <v>742.1274613147109</v>
       </c>
       <c r="R18">
-        <v>696.323678116919</v>
+        <v>6679.147151832399</v>
       </c>
       <c r="S18">
-        <v>0.04742456359202028</v>
+        <v>0.04352919849575623</v>
       </c>
       <c r="T18">
-        <v>0.04742456359202028</v>
+        <v>0.04717758544423105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H19">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I19">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J19">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N19">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O19">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P19">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q19">
-        <v>1265.469108952397</v>
+        <v>1608.18612276935</v>
       </c>
       <c r="R19">
-        <v>1265.469108952397</v>
+        <v>14473.67510492415</v>
       </c>
       <c r="S19">
-        <v>0.08618738974028289</v>
+        <v>0.09432753348344525</v>
       </c>
       <c r="T19">
-        <v>0.08618738974028289</v>
+        <v>0.1022335679140212</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H20">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I20">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J20">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N20">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O20">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P20">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q20">
-        <v>1879.677428873006</v>
+        <v>1965.451264061355</v>
       </c>
       <c r="R20">
-        <v>1879.677428873006</v>
+        <v>17689.0613765522</v>
       </c>
       <c r="S20">
-        <v>0.1280193171071588</v>
+        <v>0.1152827818222737</v>
       </c>
       <c r="T20">
-        <v>0.1280193171071588</v>
+        <v>0.1249451742190751</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.1994417458299</v>
+        <v>34.916151</v>
       </c>
       <c r="H21">
-        <v>34.1994417458299</v>
+        <v>104.748453</v>
       </c>
       <c r="I21">
-        <v>0.3071915423129888</v>
+        <v>0.2936984052163973</v>
       </c>
       <c r="J21">
-        <v>0.3071915423129888</v>
+        <v>0.3050000744385877</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N21">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O21">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P21">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q21">
-        <v>611.3676577913735</v>
+        <v>628.335201463446</v>
       </c>
       <c r="R21">
-        <v>611.3676577913735</v>
+        <v>3770.011208780676</v>
       </c>
       <c r="S21">
-        <v>0.0416384582001291</v>
+        <v>0.03685475761524842</v>
       </c>
       <c r="T21">
-        <v>0.0416384582001291</v>
+        <v>0.02662915217838312</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H22">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I22">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J22">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.68374283130553</v>
+        <v>1.808665</v>
       </c>
       <c r="N22">
-        <v>1.68374283130553</v>
+        <v>5.425995</v>
       </c>
       <c r="O22">
-        <v>0.01276667203748057</v>
+        <v>0.01261203239065773</v>
       </c>
       <c r="P22">
-        <v>0.01276667203748057</v>
+        <v>0.01316260230515319</v>
       </c>
       <c r="Q22">
-        <v>21.04459908289408</v>
+        <v>23.9026917462425</v>
       </c>
       <c r="R22">
-        <v>21.04459908289408</v>
+        <v>143.416150477455</v>
       </c>
       <c r="S22">
-        <v>0.001433285925554442</v>
+        <v>0.001402003116502164</v>
       </c>
       <c r="T22">
-        <v>0.001433285925554442</v>
+        <v>0.001013007729793256</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H23">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I23">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J23">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.3606738171925</v>
+        <v>21.254561</v>
       </c>
       <c r="N23">
-        <v>20.3606738171925</v>
+        <v>63.763683</v>
       </c>
       <c r="O23">
-        <v>0.1543810849574131</v>
+        <v>0.1482105374854993</v>
       </c>
       <c r="P23">
-        <v>0.1543810849574131</v>
+        <v>0.1546805702623864</v>
       </c>
       <c r="Q23">
-        <v>254.4819847625785</v>
+        <v>280.8929347251745</v>
       </c>
       <c r="R23">
-        <v>254.4819847625785</v>
+        <v>1685.357608351047</v>
       </c>
       <c r="S23">
-        <v>0.01733202165698866</v>
+        <v>0.01647566617471193</v>
       </c>
       <c r="T23">
-        <v>0.01733202165698866</v>
+        <v>0.01190437952100708</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H24">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I24">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J24">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>37.0026247316362</v>
+        <v>46.05851666666666</v>
       </c>
       <c r="N24">
-        <v>37.0026247316362</v>
+        <v>138.17555</v>
       </c>
       <c r="O24">
-        <v>0.2805656337128871</v>
+        <v>0.3211714187346186</v>
       </c>
       <c r="P24">
-        <v>0.2805656337128871</v>
+        <v>0.3351919441403484</v>
       </c>
       <c r="Q24">
-        <v>462.484761932603</v>
+        <v>608.6934430491583</v>
       </c>
       <c r="R24">
-        <v>462.484761932603</v>
+        <v>3652.160658294949</v>
       </c>
       <c r="S24">
-        <v>0.03149848079549338</v>
+        <v>0.03570267789122558</v>
       </c>
       <c r="T24">
-        <v>0.03149848079549338</v>
+        <v>0.02579672488058587</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H25">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I25">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J25">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.9622254901925</v>
+        <v>56.290605</v>
       </c>
       <c r="N25">
-        <v>54.9622254901925</v>
+        <v>168.871815</v>
       </c>
       <c r="O25">
-        <v>0.4167410213941487</v>
+        <v>0.3925209663203081</v>
       </c>
       <c r="P25">
-        <v>0.4167410213941487</v>
+        <v>0.4096562089339196</v>
       </c>
       <c r="Q25">
-        <v>686.9564512104739</v>
+        <v>743.9171872759724</v>
       </c>
       <c r="R25">
-        <v>686.9564512104739</v>
+        <v>4463.503123655834</v>
       </c>
       <c r="S25">
-        <v>0.04678658923890486</v>
+        <v>0.04363417417807736</v>
       </c>
       <c r="T25">
-        <v>0.04678658923890486</v>
+        <v>0.0315275730882938</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>12.4987015187923</v>
+        <v>13.2156545</v>
       </c>
       <c r="H26">
-        <v>12.4987015187923</v>
+        <v>26.431309</v>
       </c>
       <c r="I26">
-        <v>0.1122677798369522</v>
+        <v>0.1111639324317536</v>
       </c>
       <c r="J26">
-        <v>0.1122677798369522</v>
+        <v>0.07696105270890552</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.8765391065461</v>
+        <v>17.995546</v>
       </c>
       <c r="N26">
-        <v>17.8765391065461</v>
+        <v>35.991092</v>
       </c>
       <c r="O26">
-        <v>0.1355455878980706</v>
+        <v>0.1254850450689161</v>
       </c>
       <c r="P26">
-        <v>0.1355455878980706</v>
+        <v>0.08730867435819248</v>
       </c>
       <c r="Q26">
-        <v>223.4335264817377</v>
+        <v>237.822918474857</v>
       </c>
       <c r="R26">
-        <v>223.4335264817377</v>
+        <v>951.291673899428</v>
       </c>
       <c r="S26">
-        <v>0.01521740222001084</v>
+        <v>0.01394941107123655</v>
       </c>
       <c r="T26">
-        <v>0.01521740222001084</v>
+        <v>0.006719367489225519</v>
       </c>
     </row>
   </sheetData>
